--- a/features_category_d.xlsx
+++ b/features_category_d.xlsx
@@ -476,3225 +476,3245 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Peak_mean</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Peak_std</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Peak_var</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Peak_max_min</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Peak_p25</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Peak_p50</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Peak_p75</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Peak_entropy</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Base_mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Base_std</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Base_var</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Base_max_min</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Base_p25</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Base_p50</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Base_p75</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Base_entropy</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Signal_Index</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Peak_mean</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Peak_std</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Peak_var</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Peak_max_min</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Peak_p25</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Peak_p50</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Peak_p75</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Peak_entropy</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.008556462030097946</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.01443836941603206</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.00020846651139381</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>78311895.83333352</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0.001272347696895271</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01038339873535932</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.378987350208477</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02511916034904599</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01636069445130308</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0002676723229288994</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9.955955403417194</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01197869712011015</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.02150603974865434</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.02985079794968745</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.081035070589367</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.01461682877891991</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0199934570740061</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0003997383257701244</v>
+      </c>
+      <c r="T2" t="n">
+        <v>63593392.85714249</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0006920310457244061</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.005405892857142214</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.02137464285714219</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.87149871735622</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.646624135529404</v>
+        <v>2.655182619906614</v>
       </c>
       <c r="B3" t="n">
-        <v>7.659756896720205</v>
+        <v>7.659485998376017</v>
       </c>
       <c r="C3" t="n">
-        <v>58.67187571685273</v>
+        <v>58.66772575931824</v>
       </c>
       <c r="D3" t="n">
-        <v>-1137.557262448427</v>
+        <v>34895370884.95739</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.001980560298789086</v>
+        <v>0.001490375083412321</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003849698838814079</v>
+        <v>0.01243333928571266</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3402340496649001</v>
+        <v>0.375626727176876</v>
       </c>
       <c r="H3" t="n">
-        <v>3.434823274415934</v>
+        <v>3.43581808505824</v>
       </c>
       <c r="I3" t="n">
-        <v>0.158198511282029</v>
+        <v>20.45490667840642</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07352658039733884</v>
+        <v>10.8504346383228</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005406158024926331</v>
+        <v>117.7319318405151</v>
       </c>
       <c r="L3" t="n">
-        <v>207.6959552897394</v>
+        <v>9.457434536207248</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1162917666774815</v>
+        <v>10.00226080241368</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1842951473602915</v>
+        <v>21.39331892744107</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2217743880952373</v>
+        <v>30.92243299000347</v>
       </c>
       <c r="P3" t="n">
-        <v>2.559438035361151</v>
+        <v>3.17316082263707</v>
       </c>
       <c r="Q3" t="n">
+        <v>0.1728643399999989</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.06448712907775057</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.004158589816690463</v>
+      </c>
+      <c r="T3" t="n">
+        <v>239616267.4111979</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1303747070685322</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2033070325887996</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.226625171725866</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.605313803743611</v>
+      </c>
+      <c r="Y3" t="n">
         <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>20.45907052110226</v>
-      </c>
-      <c r="S3" t="n">
-        <v>10.82876669836927</v>
-      </c>
-      <c r="T3" t="n">
-        <v>117.2621882077112</v>
-      </c>
-      <c r="U3" t="n">
-        <v>9.428230585741863</v>
-      </c>
-      <c r="V3" t="n">
-        <v>10.05509620118868</v>
-      </c>
-      <c r="W3" t="n">
-        <v>21.38168213160625</v>
-      </c>
-      <c r="X3" t="n">
-        <v>31.0273708730443</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3.174013704757357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.648366445492847</v>
+        <v>2.656928826249839</v>
       </c>
       <c r="B4" t="n">
-        <v>7.591249821122246</v>
+        <v>7.590850299255139</v>
       </c>
       <c r="C4" t="n">
-        <v>57.62707384668853</v>
+        <v>57.62100826570183</v>
       </c>
       <c r="D4" t="n">
-        <v>-1131.973527017323</v>
+        <v>34158099956.3581</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00170487013483155</v>
+        <v>0.0013816341389149</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003820684075174322</v>
+        <v>0.0101037924852645</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3399878057642634</v>
+        <v>0.3426338241774771</v>
       </c>
       <c r="H4" t="n">
-        <v>3.444801845009524</v>
+        <v>3.44337259159412</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1540195103665217</v>
+        <v>20.46896719855765</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06958042150282258</v>
+        <v>10.4179946228182</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004841435056510455</v>
+        <v>108.5346119610689</v>
       </c>
       <c r="L4" t="n">
-        <v>69.96076356543678</v>
+        <v>9.544549610858871</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1120728875114612</v>
+        <v>10.70836191560807</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1760442805813094</v>
+        <v>21.65878183970936</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2107391355576833</v>
+        <v>30.30310273693439</v>
       </c>
       <c r="P4" t="n">
-        <v>2.571731828890851</v>
+        <v>3.185524690053984</v>
       </c>
       <c r="Q4" t="n">
+        <v>0.1686058266666655</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0633897706753868</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.004018263026278128</v>
+      </c>
+      <c r="T4" t="n">
+        <v>238522194.1988509</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.1291495999999991</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1874227941988511</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2168252058011465</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.604390230212811</v>
+      </c>
+      <c r="Y4" t="n">
         <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>20.47227391200178</v>
-      </c>
-      <c r="S4" t="n">
-        <v>10.39750375075705</v>
-      </c>
-      <c r="T4" t="n">
-        <v>108.1080842470069</v>
-      </c>
-      <c r="U4" t="n">
-        <v>9.472928350144262</v>
-      </c>
-      <c r="V4" t="n">
-        <v>10.69809798623009</v>
-      </c>
-      <c r="W4" t="n">
-        <v>21.67652035971604</v>
-      </c>
-      <c r="X4" t="n">
-        <v>30.34899715058106</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3.186293783074205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.579393470167951</v>
+        <v>2.587946587998982</v>
       </c>
       <c r="B5" t="n">
-        <v>7.447071807705822</v>
+        <v>7.446702974021755</v>
       </c>
       <c r="C5" t="n">
-        <v>55.45887850912685</v>
+        <v>55.45338518330445</v>
       </c>
       <c r="D5" t="n">
-        <v>-1119.537336320538</v>
+        <v>34000089446.80746</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0009123940729505889</v>
+        <v>0.001750667881702084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006966159910048457</v>
+        <v>0.01073413281802038</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3282761211102238</v>
+        <v>0.3812923485794371</v>
       </c>
       <c r="H5" t="n">
-        <v>3.441213674242228</v>
+        <v>3.438517875645052</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1376840416828386</v>
+        <v>20.54008597501859</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05601243267887363</v>
+        <v>10.16832027496448</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003137392614605351</v>
+        <v>103.3947372142537</v>
       </c>
       <c r="L5" t="n">
-        <v>-80.4509751066204</v>
+        <v>7.750115755170447</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1083261725237467</v>
+        <v>11.06360407298988</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1481749551922049</v>
+        <v>21.56666055485741</v>
       </c>
       <c r="O5" t="n">
-        <v>0.179174125406356</v>
+        <v>30.27687520454558</v>
       </c>
       <c r="P5" t="n">
-        <v>2.598398979817683</v>
+        <v>3.158355883681308</v>
       </c>
       <c r="Q5" t="n">
+        <v>0.1524477599999987</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.05247071774187769</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.002753176220347799</v>
+      </c>
+      <c r="T5" t="n">
+        <v>213017227.2374731</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1287999363812615</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1725949182875741</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.1842298272374733</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.615884292670472</v>
+      </c>
+      <c r="Y5" t="n">
         <v>3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>20.54341101781143</v>
-      </c>
-      <c r="S5" t="n">
-        <v>10.14707451279377</v>
-      </c>
-      <c r="T5" t="n">
-        <v>102.9631211681889</v>
-      </c>
-      <c r="U5" t="n">
-        <v>7.716654097467315</v>
-      </c>
-      <c r="V5" t="n">
-        <v>11.11067157326888</v>
-      </c>
-      <c r="W5" t="n">
-        <v>21.73800324374012</v>
-      </c>
-      <c r="X5" t="n">
-        <v>30.32780024190311</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3.159105506389575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.444520376756292</v>
+        <v>1.453091764380747</v>
       </c>
       <c r="B6" t="n">
-        <v>4.3921027704465</v>
+        <v>4.391775303389769</v>
       </c>
       <c r="C6" t="n">
-        <v>19.29056674616382</v>
+        <v>19.2876903154643</v>
       </c>
       <c r="D6" t="n">
-        <v>-793.6435790373906</v>
+        <v>22348842383.67732</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0006228391308259355</v>
+        <v>0.00202356250000002</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004974003472273585</v>
+        <v>0.01076547058823352</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2508910598408218</v>
+        <v>0.2562196868211208</v>
       </c>
       <c r="H6" t="n">
-        <v>3.41470362487461</v>
+        <v>3.416386226746507</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1019788141093302</v>
+        <v>12.5411373392567</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04576696298597708</v>
+        <v>6.759281669696665</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002094614900959796</v>
+        <v>45.68788869029733</v>
       </c>
       <c r="L6" t="n">
-        <v>-171.6041403566395</v>
+        <v>8.334174566533038</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08387398401206461</v>
+        <v>6.231220447060762</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1151672177786103</v>
+        <v>12.4313075891485</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1372881003949136</v>
+        <v>19.11123021447294</v>
       </c>
       <c r="P6" t="n">
-        <v>2.568922937462416</v>
+        <v>3.019796781130891</v>
       </c>
       <c r="Q6" t="n">
+        <v>0.1166450242424227</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.03827694620128724</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.001465124610496237</v>
+      </c>
+      <c r="T6" t="n">
+        <v>158055440.0214316</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1037269545454532</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1298974690694739</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1370569990587569</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.621480921609181</v>
+      </c>
+      <c r="Y6" t="n">
         <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>12.54361660227591</v>
-      </c>
-      <c r="S6" t="n">
-        <v>6.741647810525567</v>
-      </c>
-      <c r="T6" t="n">
-        <v>45.44981520116417</v>
-      </c>
-      <c r="U6" t="n">
-        <v>8.412832441744474</v>
-      </c>
-      <c r="V6" t="n">
-        <v>6.261439325989385</v>
-      </c>
-      <c r="W6" t="n">
-        <v>12.44102935008838</v>
-      </c>
-      <c r="X6" t="n">
-        <v>19.0645196011278</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3.020671301267591</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.550502177273697</v>
+        <v>1.558850666001869</v>
       </c>
       <c r="B7" t="n">
-        <v>4.591046767367665</v>
+        <v>4.590878889579751</v>
       </c>
       <c r="C7" t="n">
-        <v>21.07771042015709</v>
+        <v>21.07616897878901</v>
       </c>
       <c r="D7" t="n">
-        <v>-943.3851590564033</v>
+        <v>23124492267.98528</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0004067984592317167</v>
+        <v>0.002078124999999986</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006100412733394621</v>
+        <v>0.01517549999999823</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3127650625163924</v>
+        <v>0.3129489956458564</v>
       </c>
       <c r="H7" t="n">
-        <v>3.472630771475049</v>
+        <v>3.480914582654655</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1167150697089643</v>
+        <v>13.16054316366099</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04778573536551608</v>
+        <v>7.015157537327736</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002283476504423134</v>
+        <v>49.21243527352613</v>
       </c>
       <c r="L7" t="n">
-        <v>180.4815133690764</v>
+        <v>8.574896803754859</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09094551363656886</v>
+        <v>6.537492191181755</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1341874905696604</v>
+        <v>13.08911917488973</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1588304766169416</v>
+        <v>19.97370937396446</v>
       </c>
       <c r="P7" t="n">
-        <v>2.591021544967655</v>
+        <v>3.022452708553041</v>
       </c>
       <c r="Q7" t="n">
+        <v>0.1310955818181801</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.04136312794620718</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.001710908353494305</v>
+      </c>
+      <c r="T7" t="n">
+        <v>170484931.8181796</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.1162542422644296</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1397411590909072</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.1594086098884357</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.625570385631299</v>
+      </c>
+      <c r="Y7" t="n">
         <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>13.16240957152147</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6.998419718105962</v>
-      </c>
-      <c r="T7" t="n">
-        <v>48.97787855077434</v>
-      </c>
-      <c r="U7" t="n">
-        <v>8.519251619174076</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6.579294006294138</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13.11879887074055</v>
-      </c>
-      <c r="X7" t="n">
-        <v>19.93003970164678</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>3.023254136100296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.497662949106813</v>
+        <v>1.506081062300458</v>
       </c>
       <c r="B8" t="n">
-        <v>4.489332561651285</v>
+        <v>4.489307015148719</v>
       </c>
       <c r="C8" t="n">
-        <v>20.15410684910249</v>
+        <v>20.1538774762635</v>
       </c>
       <c r="D8" t="n">
-        <v>-1157.37791615551</v>
+        <v>22985798020.34233</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0007585232726183075</v>
+        <v>0.004922124950988427</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01004148008302517</v>
+        <v>0.01845724999999998</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3203374647467797</v>
+        <v>0.319373056839714</v>
       </c>
       <c r="H8" t="n">
-        <v>3.455558596192573</v>
+        <v>3.468578738979105</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1009261513800769</v>
+        <v>12.74850349955486</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04069119293005165</v>
+        <v>7.055456586813247</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001655773182070685</v>
+        <v>49.77946764840643</v>
       </c>
       <c r="L8" t="n">
-        <v>3540.190645694835</v>
+        <v>9.947592435666468</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08233080829115176</v>
+        <v>6.346302608785412</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1080321625114872</v>
+        <v>12.44734452036639</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1335822792184482</v>
+        <v>19.64033709860255</v>
       </c>
       <c r="P8" t="n">
-        <v>2.59207628344005</v>
+        <v>3.010451847447126</v>
       </c>
       <c r="Q8" t="n">
+        <v>0.1154471466666654</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.03608412498662066</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.001302064076050062</v>
+      </c>
+      <c r="T8" t="n">
+        <v>153190149.9999981</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1099432999999991</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1197212236078782</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.1366743999999985</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.626456278258347</v>
+      </c>
+      <c r="Y8" t="n">
         <v>6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>12.75119011037842</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7.037182205504069</v>
-      </c>
-      <c r="T8" t="n">
-        <v>49.52193339346312</v>
-      </c>
-      <c r="U8" t="n">
-        <v>9.871899587236914</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6.429932570241901</v>
-      </c>
-      <c r="W8" t="n">
-        <v>12.4545780896076</v>
-      </c>
-      <c r="X8" t="n">
-        <v>19.52112486836643</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>3.011386572143047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.861321427859256</v>
+        <v>0.869959061204935</v>
       </c>
       <c r="B9" t="n">
-        <v>2.160203042442991</v>
+        <v>2.160342480910839</v>
       </c>
       <c r="C9" t="n">
-        <v>4.666477184579955</v>
+        <v>4.667079634827999</v>
       </c>
       <c r="D9" t="n">
-        <v>-498.0056416557937</v>
+        <v>11267206468.73924</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001631632346327349</v>
+        <v>0.006061363001979903</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01105523906957146</v>
+        <v>0.01978758328573493</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3126826311858295</v>
+        <v>0.3078480359812027</v>
       </c>
       <c r="H9" t="n">
-        <v>3.774506423890257</v>
+        <v>3.793392431590235</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06094166116993887</v>
+        <v>4.39463808721351</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02441224750831303</v>
+        <v>3.17609360686709</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0005959578284071355</v>
+        <v>10.087570599582</v>
       </c>
       <c r="L9" t="n">
-        <v>112.8603569026921</v>
+        <v>9.981275608543845</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05181069442423723</v>
+        <v>2.091472979670412</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06290028911699078</v>
+        <v>3.121968928180773</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07848534490570067</v>
+        <v>6.050719515615296</v>
       </c>
       <c r="P9" t="n">
-        <v>2.596627465953396</v>
+        <v>3.503121475066553</v>
       </c>
       <c r="Q9" t="n">
+        <v>0.0755528266666657</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.02361746706612059</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0005577847506192905</v>
+      </c>
+      <c r="T9" t="n">
+        <v>97211038.31239207</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0709623616876055</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.08181348506281871</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.08977469999999932</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.62604498349351</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4.38577275898929</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.175849070786722</v>
-      </c>
-      <c r="T9" t="n">
-        <v>10.08601732041689</v>
-      </c>
-      <c r="U9" t="n">
-        <v>9.9427919015166</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.092323887194325</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.082028641948137</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6.079023277606442</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>3.501785086327338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8872778376753193</v>
+        <v>0.8957216558997476</v>
       </c>
       <c r="B10" t="n">
-        <v>2.16706320589047</v>
+        <v>2.167107651337556</v>
       </c>
       <c r="C10" t="n">
-        <v>4.696162938324281</v>
+        <v>4.696355572485777</v>
       </c>
       <c r="D10" t="n">
-        <v>-498.1539022264182</v>
+        <v>11264517573.22027</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003861751771373413</v>
+        <v>0.009542622907594223</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01629645821515359</v>
+        <v>0.0276898333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3436072525820534</v>
+        <v>0.3456610773809454</v>
       </c>
       <c r="H10" t="n">
-        <v>3.816066798829892</v>
+        <v>3.841469883831838</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07118947121057537</v>
+        <v>4.481528344692073</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03306523641030688</v>
+        <v>3.112132352724408</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001093309858869484</v>
+        <v>9.685367780873957</v>
       </c>
       <c r="L10" t="n">
-        <v>58.88552774746429</v>
+        <v>9.332282598487492</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05432657587685071</v>
+        <v>2.188445591232061</v>
       </c>
       <c r="N10" t="n">
-        <v>0.08531465961285251</v>
+        <v>3.291922181493293</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09509994653154241</v>
+        <v>6.059689196070744</v>
       </c>
       <c r="P10" t="n">
-        <v>2.56045719197085</v>
+        <v>3.519383540108278</v>
       </c>
       <c r="Q10" t="n">
+        <v>0.08555979666666559</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.02740314338198809</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0007509322672137978</v>
+      </c>
+      <c r="T10" t="n">
+        <v>114349520.0093054</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.07946001249999912</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.09367867333643409</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.1006253337453451</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.623549372123124</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4.473995854527596</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.110710214276375</v>
-      </c>
-      <c r="T10" t="n">
-        <v>9.676518037203373</v>
-      </c>
-      <c r="U10" t="n">
-        <v>9.296722302345934</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.194345649650912</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.237306955524828</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.079044856185195</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>3.518462538031443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8530734883670429</v>
+        <v>0.8617568150241676</v>
       </c>
       <c r="B11" t="n">
-        <v>2.154547936176542</v>
+        <v>2.154511770652448</v>
       </c>
       <c r="C11" t="n">
-        <v>4.642076809282597</v>
+        <v>4.641920969879948</v>
       </c>
       <c r="D11" t="n">
-        <v>-403.4109499028817</v>
+        <v>11325094187.4879</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001399216297412095</v>
+        <v>0.006588934865405127</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01067597678298569</v>
+        <v>0.01856645833333331</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2615135915297023</v>
+        <v>0.2860700701754375</v>
       </c>
       <c r="H11" t="n">
-        <v>3.766089304097682</v>
+        <v>3.782325018465156</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0541078498096448</v>
+        <v>4.439123056235749</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02437850049249268</v>
+        <v>3.188942142579453</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0005943112862624657</v>
+        <v>10.16935198871923</v>
       </c>
       <c r="L11" t="n">
-        <v>-1837.932021332839</v>
+        <v>9.74652036017919</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0438664060019735</v>
+        <v>2.214062720135025</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06310135808580994</v>
+        <v>3.100628535924495</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06928581997883296</v>
+        <v>6.089651437489614</v>
       </c>
       <c r="P11" t="n">
-        <v>2.563116069827416</v>
+        <v>3.480990612335358</v>
       </c>
       <c r="Q11" t="n">
+        <v>0.06898184333333222</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.02202197704250726</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0004849674728607166</v>
+      </c>
+      <c r="T11" t="n">
+        <v>91185482.03298537</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.06487036523350509</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.07421068749999926</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.08169224296701194</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.624047620612151</v>
+      </c>
+      <c r="Y11" t="n">
         <v>9</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4.514150853194566</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.183689188762926</v>
-      </c>
-      <c r="T11" t="n">
-        <v>10.13587685064594</v>
-      </c>
-      <c r="U11" t="n">
-        <v>8.980978245756413</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.238003378601992</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3.112642480528597</v>
-      </c>
-      <c r="X11" t="n">
-        <v>6.381009790219338</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>3.463746793880659</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5909791936801603</v>
+        <v>0.5994016893978993</v>
       </c>
       <c r="B12" t="n">
-        <v>1.30508341688163</v>
+        <v>1.304806995531814</v>
       </c>
       <c r="C12" t="n">
-        <v>1.70324272501943</v>
+        <v>1.702521295588759</v>
       </c>
       <c r="D12" t="n">
-        <v>-210.9054300076491</v>
+        <v>6170950403.845915</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002620077947338073</v>
+        <v>0.005644887499999141</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01434361011562493</v>
+        <v>0.02577829166666534</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2466753245229541</v>
+        <v>0.2485270791899881</v>
       </c>
       <c r="H12" t="n">
-        <v>3.927429719812457</v>
+        <v>3.952911972270124</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03714639929402445</v>
+        <v>2.774325123768772</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01644632511119275</v>
+        <v>1.584341487491734</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002704816096630494</v>
+        <v>2.51013794898752</v>
       </c>
       <c r="L12" t="n">
-        <v>43.26051739196096</v>
+        <v>8.298731137315936</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02620003191840523</v>
+        <v>1.449567910103318</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0368308499042161</v>
+        <v>2.474443261164611</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04953343408136483</v>
+        <v>3.546470327909455</v>
       </c>
       <c r="P12" t="n">
-        <v>2.587747843366434</v>
+        <v>3.669394573888498</v>
       </c>
       <c r="Q12" t="n">
+        <v>0.05163072666666586</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.02323660154780965</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0005399396514916698</v>
+      </c>
+      <c r="T12" t="n">
+        <v>88046624.99999937</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.03504425754097412</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.05764127877048675</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.06759294245902403</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.571089975795406</v>
+      </c>
+      <c r="Y12" t="n">
         <v>10</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.765308353025961</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.586037202421863</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.515514007466169</v>
-      </c>
-      <c r="U12" t="n">
-        <v>8.277920833884211</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.441664501816659</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.466468609610794</v>
-      </c>
-      <c r="X12" t="n">
-        <v>3.524865744579609</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>3.667657961540878</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.555457180622235</v>
+        <v>0.5639475173081665</v>
       </c>
       <c r="B13" t="n">
-        <v>1.268921467934536</v>
+        <v>1.268620638517637</v>
       </c>
       <c r="C13" t="n">
-        <v>1.610161691785137</v>
+        <v>1.609398324472897</v>
       </c>
       <c r="D13" t="n">
-        <v>-201.4727953238109</v>
+        <v>6169913986.598873</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00120988322539806</v>
+        <v>0.004433157457296555</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009152509087675014</v>
+        <v>0.01928671195651949</v>
       </c>
       <c r="G13" t="n">
-        <v>0.206098775916661</v>
+        <v>0.2087573235294085</v>
       </c>
       <c r="H13" t="n">
-        <v>3.873545562071508</v>
+        <v>3.901554426697651</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02670730936268782</v>
+        <v>2.634491387479766</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01643418912787053</v>
+        <v>1.616540270726583</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002700825722906179</v>
+        <v>2.613202446880774</v>
       </c>
       <c r="L13" t="n">
-        <v>-13.91330163647562</v>
+        <v>9.593976999764996</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01695649064340912</v>
+        <v>1.297172231967803</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0305066363462172</v>
+        <v>2.376169373153491</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04079431648384367</v>
+        <v>3.200539602941173</v>
       </c>
       <c r="P13" t="n">
-        <v>2.505466139897813</v>
+        <v>3.646608982782987</v>
       </c>
       <c r="Q13" t="n">
+        <v>0.04136679666666598</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0149384574529197</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0002231575110726922</v>
+      </c>
+      <c r="T13" t="n">
+        <v>62201387.49999937</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.03696906546067846</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.04489903569101827</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.05179878453931969</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.60966317730787</v>
+      </c>
+      <c r="Y13" t="n">
         <v>11</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.626061261901974</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.617555270601711</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.616485053451375</v>
-      </c>
-      <c r="U13" t="n">
-        <v>9.670803440848136</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.295231327148552</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.360188089299936</v>
-      </c>
-      <c r="X13" t="n">
-        <v>3.178418105633352</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>3.644861492076134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5540926406081985</v>
+        <v>0.562794461680024</v>
       </c>
       <c r="B14" t="n">
-        <v>1.247903797643648</v>
+        <v>1.24782943030201</v>
       </c>
       <c r="C14" t="n">
-        <v>1.557263888173439</v>
+        <v>1.557078287127839</v>
       </c>
       <c r="D14" t="n">
-        <v>-211.0411513525525</v>
+        <v>5990488098.958327</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002693992704138478</v>
+        <v>0.005272708333333154</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01624522215009165</v>
+        <v>0.02738424133934864</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2061687562534704</v>
+        <v>0.2043033091683433</v>
       </c>
       <c r="H14" t="n">
-        <v>3.899065102049599</v>
+        <v>3.931327221858909</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0408770819726052</v>
+        <v>2.618931697275693</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01569168366432686</v>
+        <v>1.55902106397433</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002462289362213024</v>
+        <v>2.430546677915651</v>
       </c>
       <c r="L14" t="n">
-        <v>-30.46864970645744</v>
+        <v>9.986244533108552</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03396866325987915</v>
+        <v>1.298546901395794</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0465646993176037</v>
+        <v>2.359452286908786</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04962153938341006</v>
+        <v>3.226241676470584</v>
       </c>
       <c r="P14" t="n">
-        <v>2.618487333326776</v>
+        <v>3.655135674438601</v>
       </c>
       <c r="Q14" t="n">
+        <v>0.05533729666666595</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.02401736502658136</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0005768338228200535</v>
+      </c>
+      <c r="T14" t="n">
+        <v>96456174.1145744</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.04075330177084868</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.05940062411457436</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.06830369242186185</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.582504231911884</v>
+      </c>
+      <c r="Y14" t="n">
         <v>12</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.654143892088191</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.548420352363052</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.397605587612119</v>
-      </c>
-      <c r="U14" t="n">
-        <v>9.94711566522939</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.328392034684662</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.460622853270511</v>
-      </c>
-      <c r="X14" t="n">
-        <v>3.208348937822928</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>3.640033317899004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4267265251732242</v>
+        <v>0.4352069599540587</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9307847608426497</v>
+        <v>0.9305664449114326</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8663602710169087</v>
+        <v>0.8659539083951022</v>
       </c>
       <c r="D15" t="n">
-        <v>-196.1502544918851</v>
+        <v>3997529444.999981</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001942660177706046</v>
+        <v>0.006275312500000019</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01118879902393431</v>
+        <v>0.02227658551339046</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1484389524797743</v>
+        <v>0.1495135966829213</v>
       </c>
       <c r="H15" t="n">
-        <v>3.918072731363056</v>
+        <v>3.95995519991317</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01637990724578956</v>
+        <v>1.955625567777767</v>
       </c>
       <c r="J15" t="n">
-        <v>0.008604348491400448</v>
+        <v>1.092523518488422</v>
       </c>
       <c r="K15" t="n">
-        <v>7.403481296146514e-05</v>
+        <v>1.193607638450321</v>
       </c>
       <c r="L15" t="n">
-        <v>21.6849322333222</v>
+        <v>9.446612388931122</v>
       </c>
       <c r="M15" t="n">
-        <v>0.008123504884575711</v>
+        <v>0.9544022553960924</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02000636317093602</v>
+        <v>1.856524680253379</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02245037138524109</v>
+        <v>2.904221670543357</v>
       </c>
       <c r="P15" t="n">
-        <v>2.544266332100571</v>
+        <v>3.705830605912175</v>
       </c>
       <c r="Q15" t="n">
+        <v>0.03083268541666636</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.01787107093867769</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0003193751764952502</v>
+      </c>
+      <c r="T15" t="n">
+        <v>73554531.24999966</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.02493774999999976</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.03024297729564085</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.035655526977179</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.492994752113592</v>
+      </c>
+      <c r="Y15" t="n">
         <v>13</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.947397469346778</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.093065401055435</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.19479197098448</v>
-      </c>
-      <c r="U15" t="n">
-        <v>9.521793516615293</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.9518291674235749</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.862000707577434</v>
-      </c>
-      <c r="X15" t="n">
-        <v>2.931803974137498</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>3.703946547885614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4915475682858547</v>
+        <v>0.4999733909718824</v>
       </c>
       <c r="B16" t="n">
-        <v>1.020399730230745</v>
+        <v>1.019702292951024</v>
       </c>
       <c r="C16" t="n">
-        <v>1.041215609454977</v>
+        <v>1.039792766249576</v>
       </c>
       <c r="D16" t="n">
-        <v>-165.5704433152087</v>
+        <v>4135086535.709053</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001256141612011397</v>
+        <v>0.007844967105261669</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01186517968395443</v>
+        <v>0.02385076973684053</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2758738341207974</v>
+        <v>0.2732216071373932</v>
       </c>
       <c r="H16" t="n">
-        <v>4.005065194865244</v>
+        <v>4.035113143024504</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01514138919410355</v>
+        <v>2.103731183013078</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01249913272745591</v>
+        <v>1.15807601762315</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001562283189385595</v>
+        <v>1.341140062593894</v>
       </c>
       <c r="L16" t="n">
-        <v>-3.95705752736805</v>
+        <v>8.899772162831106</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005726726734331339</v>
+        <v>1.036308807733935</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01941129349786612</v>
+        <v>1.953346907326557</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02590175422549199</v>
+        <v>3.117552356480731</v>
       </c>
       <c r="P16" t="n">
-        <v>2.521519664256626</v>
+        <v>3.771556713946003</v>
       </c>
       <c r="Q16" t="n">
+        <v>0.02983729999999946</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0132796782501793</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0001763498544282852</v>
+      </c>
+      <c r="T16" t="n">
+        <v>50932097.2222218</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.02530321691110943</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0286922361111106</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.03974005024444255</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.574644264155175</v>
+      </c>
+      <c r="Y16" t="n">
         <v>14</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.095095829231014</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.16056742688795</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.346916752353317</v>
-      </c>
-      <c r="U16" t="n">
-        <v>9.351552471801011</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.017293546921709</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.922782957946964</v>
-      </c>
-      <c r="X16" t="n">
-        <v>3.131552668991958</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>3.769243466655978</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4448228936898628</v>
+        <v>0.4532649694884771</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9474384559434526</v>
+        <v>0.9471150395209169</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8976396278005134</v>
+        <v>0.897026898086708</v>
       </c>
       <c r="D17" t="n">
-        <v>-178.3524620667438</v>
+        <v>4009347660.709976</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002019831700786119</v>
+        <v>0.007961499840232922</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01348224312763673</v>
+        <v>0.02315549999999866</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1930653261802898</v>
+        <v>0.1914624315628491</v>
       </c>
       <c r="H17" t="n">
-        <v>3.967798014038775</v>
+        <v>3.996213454319147</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01695514102691537</v>
+        <v>1.959216778569532</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008698703800155061</v>
+        <v>1.093137040768438</v>
       </c>
       <c r="K17" t="n">
-        <v>7.566744780283209e-05</v>
+        <v>1.194948589899977</v>
       </c>
       <c r="L17" t="n">
-        <v>-212.4595916031905</v>
+        <v>9.200745280183986</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00806891153949333</v>
+        <v>0.9935553089802414</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02093233329249882</v>
+        <v>1.872841025288325</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02321687346234147</v>
+        <v>2.896594552823567</v>
       </c>
       <c r="P17" t="n">
-        <v>2.540002768627829</v>
+        <v>3.748607854548065</v>
       </c>
       <c r="Q17" t="n">
+        <v>0.03187929999999949</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.01571923509082053</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0002470943518404835</v>
+      </c>
+      <c r="T17" t="n">
+        <v>70182152.77777739</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.02366140007985285</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.02847568864932792</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.03470857079340611</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.568464419929627</v>
+      </c>
+      <c r="Y17" t="n">
         <v>15</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.950452846754019</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.09449689897835</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.197923461873224</v>
-      </c>
-      <c r="U17" t="n">
-        <v>9.213871821429187</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.9930164516114597</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.876806175823327</v>
-      </c>
-      <c r="X17" t="n">
-        <v>2.887172264359796</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>3.746640266114877</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3636810855595526</v>
+        <v>0.3722504421628156</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7705531842864187</v>
+        <v>0.7709712624225704</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5937522098139395</v>
+        <v>0.5943966874814519</v>
       </c>
       <c r="D18" t="n">
-        <v>-170.7261853642824</v>
+        <v>2992070034.722218</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002097175600982462</v>
+        <v>0.006315962644446171</v>
       </c>
       <c r="F18" t="n">
-        <v>0.008170269606580304</v>
+        <v>0.01845338742966601</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1205626660326852</v>
+        <v>0.1257500059883229</v>
       </c>
       <c r="H18" t="n">
-        <v>3.946249578781051</v>
+        <v>3.999626504035567</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01277602165241459</v>
+        <v>1.611958711147479</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007182383914809999</v>
+        <v>0.8656510964829022</v>
       </c>
       <c r="K18" t="n">
-        <v>5.158663869972141e-05</v>
+        <v>0.7493518208420508</v>
       </c>
       <c r="L18" t="n">
-        <v>-158.1246562385838</v>
+        <v>8.767347018494261</v>
       </c>
       <c r="M18" t="n">
-        <v>0.009540821063089526</v>
+        <v>0.8062455413847022</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01361408841218922</v>
+        <v>1.614623801168332</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01880339385569122</v>
+        <v>2.410342502306682</v>
       </c>
       <c r="P18" t="n">
-        <v>2.494242406984687</v>
+        <v>3.755094645377956</v>
       </c>
       <c r="Q18" t="n">
+        <v>0.02738696666666629</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.01749422975044355</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0003060480745613042</v>
+      </c>
+      <c r="T18" t="n">
+        <v>64493652.77777752</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.01359792270019322</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.02562968055555492</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.0371871666666661</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.481798851013083</v>
+      </c>
+      <c r="Y18" t="n">
         <v>16</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.602805503465804</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.8648182884884292</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.747910672104056</v>
-      </c>
-      <c r="U18" t="n">
-        <v>8.824266992746212</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.7806328810462685</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.596857408398912</v>
-      </c>
-      <c r="X18" t="n">
-        <v>2.413982552409363</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>3.75367613761541</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3931932752733227</v>
+        <v>0.4016045184560039</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8357595236399324</v>
+        <v>0.8356404479820559</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6984939813548469</v>
+        <v>0.6982949583036511</v>
       </c>
       <c r="D19" t="n">
-        <v>-198.9223030618624</v>
+        <v>3325148433.747533</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0009353324823191377</v>
+        <v>0.005048434718465722</v>
       </c>
       <c r="F19" t="n">
-        <v>0.008153412365023521</v>
+        <v>0.01821118055555426</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1480255963616099</v>
+        <v>0.1480379751582925</v>
       </c>
       <c r="H19" t="n">
-        <v>3.93938641947914</v>
+        <v>3.988974410406225</v>
       </c>
       <c r="I19" t="n">
-        <v>0.009184853667081782</v>
+        <v>1.74110270798428</v>
       </c>
       <c r="J19" t="n">
-        <v>0.007122375357162911</v>
+        <v>0.9454945379387462</v>
       </c>
       <c r="K19" t="n">
-        <v>5.072823072832151e-05</v>
+        <v>0.8939599212720032</v>
       </c>
       <c r="L19" t="n">
-        <v>-9.35727024497554</v>
+        <v>9.992271840700973</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003950800099122101</v>
+        <v>0.8331869242007561</v>
       </c>
       <c r="N19" t="n">
-        <v>0.011004122721635</v>
+        <v>1.644827313548609</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01379786807157352</v>
+        <v>2.60625777096522</v>
       </c>
       <c r="P19" t="n">
-        <v>2.4655816587517</v>
+        <v>3.753420266076477</v>
       </c>
       <c r="Q19" t="n">
+        <v>0.02356666666666625</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.01680949043579814</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0002825589687111893</v>
+      </c>
+      <c r="T19" t="n">
+        <v>59038055.5555553</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0122982988771691</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.01990689334114581</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.03407532442881789</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.420455233286419</v>
+      </c>
+      <c r="Y19" t="n">
         <v>17</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.732305224179182</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.9464660383068852</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.8957979616683304</v>
-      </c>
-      <c r="U19" t="n">
-        <v>9.92788519873295</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.8354954065336753</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.635341740944998</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2.614076412069318</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>3.751304213736177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3601606138301991</v>
+        <v>0.3687719706084586</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7678909866389227</v>
+        <v>0.7682195726713122</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5896565673612982</v>
+        <v>0.5901613118352936</v>
       </c>
       <c r="D20" t="n">
-        <v>-112.4800830227986</v>
+        <v>3278107894.026345</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001679484475560403</v>
+        <v>0.005247025501499136</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01248276181545507</v>
+        <v>0.02110937499999999</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1372934144211413</v>
+        <v>0.141043317868236</v>
       </c>
       <c r="H20" t="n">
-        <v>3.972447388437258</v>
+        <v>4.003044359097862</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002866464322252697</v>
+        <v>1.617333917921702</v>
       </c>
       <c r="J20" t="n">
-        <v>0.009802092567455513</v>
+        <v>0.8750336658230656</v>
       </c>
       <c r="K20" t="n">
-        <v>9.608101870096663e-05</v>
+        <v>0.7656839163237525</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.7918266378219704</v>
+        <v>9.541201043453267</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0005463685081163002</v>
+        <v>0.8166621366244987</v>
       </c>
       <c r="N20" t="n">
-        <v>0.005746506472538774</v>
+        <v>1.647690647616333</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01057952999786854</v>
+        <v>2.330449053117253</v>
       </c>
       <c r="P20" t="n">
-        <v>2.477134420074832</v>
+        <v>3.736054867616577</v>
       </c>
       <c r="Q20" t="n">
+        <v>0.0176335428571426</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.01380044495072706</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.000190452280838048</v>
+      </c>
+      <c r="T20" t="n">
+        <v>49234196.42857096</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.007594146459316442</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.01498426065279501</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.02676591431645919</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.338344173295238</v>
+      </c>
+      <c r="Y20" t="n">
         <v>18</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.607952909929513</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.8748206326345097</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.7653111392830438</v>
-      </c>
-      <c r="U20" t="n">
-        <v>9.824395585068242</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.8210728466157483</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.594980886476162</v>
-      </c>
-      <c r="X20" t="n">
-        <v>2.333449023802147</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>3.734423006386753</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3107947209645435</v>
+        <v>0.3194435708978804</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7004996260232934</v>
+        <v>0.7016033155635762</v>
       </c>
       <c r="C21" t="n">
-        <v>0.490699726058774</v>
+        <v>0.4922472124098031</v>
       </c>
       <c r="D21" t="n">
-        <v>-185.0705623381205</v>
+        <v>3327992999.999996</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0004638554839296022</v>
+        <v>0.004060249999999987</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00568397014273624</v>
+        <v>0.01455116675242724</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0894101407827745</v>
+        <v>0.08840770584441249</v>
       </c>
       <c r="H21" t="n">
-        <v>3.887242425091671</v>
+        <v>3.933931722893481</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002078510743094199</v>
+        <v>1.515703709766076</v>
       </c>
       <c r="J21" t="n">
-        <v>0.006574333551658872</v>
+        <v>0.8442061045007816</v>
       </c>
       <c r="K21" t="n">
-        <v>4.322186164846756e-05</v>
+        <v>0.7126839468763846</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.7861540202261804</v>
+        <v>9.292329038644692</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.0001852879769297275</v>
+        <v>0.7551227152082109</v>
       </c>
       <c r="N21" t="n">
-        <v>0.002737956001300395</v>
+        <v>1.494851506677517</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00688558631786623</v>
+        <v>1.945426074265465</v>
       </c>
       <c r="P21" t="n">
-        <v>2.450092087197465</v>
+        <v>3.650688558960281</v>
       </c>
       <c r="Q21" t="n">
+        <v>0.01688125520833304</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.01553553020355398</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.0002413526987055381</v>
+      </c>
+      <c r="T21" t="n">
+        <v>42860680.0029726</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.006193582188986135</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.009584507497026773</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.02739856249999945</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.2637250553737</v>
+      </c>
+      <c r="Y21" t="n">
         <v>19</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.5055241617893</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.8419525857638415</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.7088841566744188</v>
-      </c>
-      <c r="U21" t="n">
-        <v>9.060002923430973</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.7575447347817305</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.3928074710398</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.942486323273095</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>3.649583976550286</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3335674401747207</v>
+        <v>0.3420299751750763</v>
       </c>
       <c r="B22" t="n">
-        <v>0.754804129904586</v>
+        <v>0.7549389686910428</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5697292745210192</v>
+        <v>0.5699328464482953</v>
       </c>
       <c r="D22" t="n">
-        <v>-184.634973698025</v>
+        <v>3606225851.452732</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0002297056461143064</v>
+        <v>0.003791197346793729</v>
       </c>
       <c r="F22" t="n">
-        <v>0.006255972331864</v>
+        <v>0.01513037564847847</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1227561943185849</v>
+        <v>0.1241111315789454</v>
       </c>
       <c r="H22" t="n">
-        <v>3.894499477014052</v>
+        <v>3.938558028753679</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01097339483756912</v>
+        <v>1.559607033106791</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00545048602987659</v>
+        <v>0.9487470804685079</v>
       </c>
       <c r="K22" t="n">
-        <v>2.970779796187987e-05</v>
+        <v>0.9001210226975173</v>
       </c>
       <c r="L22" t="n">
-        <v>-9.568237445484103</v>
+        <v>9.731822387902183</v>
       </c>
       <c r="M22" t="n">
-        <v>0.007400305275845862</v>
+        <v>0.7476028369932379</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01244030166326894</v>
+        <v>1.328149573774875</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01483088355753024</v>
+        <v>2.162772142891153</v>
       </c>
       <c r="P22" t="n">
-        <v>2.590743291924158</v>
+        <v>3.669168897867788</v>
       </c>
       <c r="Q22" t="n">
+        <v>0.0256956999999996</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.01796658335920107</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0003227981176031206</v>
+      </c>
+      <c r="T22" t="n">
+        <v>62890430.55555554</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.01225033333333292</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.02242087884689337</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.03281216666666614</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.456297115151309</v>
+      </c>
+      <c r="Y22" t="n">
         <v>20</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.550157644720314</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.9494904019908826</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.9015320234728078</v>
-      </c>
-      <c r="U22" t="n">
-        <v>9.581502271468446</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.7474871164798289</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.321936388823133</v>
-      </c>
-      <c r="X22" t="n">
-        <v>2.160573556132974</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>3.666657873556681</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.2883625205297319</v>
+        <v>0.2968935885722549</v>
       </c>
       <c r="B23" t="n">
-        <v>0.649194728413876</v>
+        <v>0.6495897048209113</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4214537954003663</v>
+        <v>0.4219667846093186</v>
       </c>
       <c r="D23" t="n">
-        <v>-130.1781922924738</v>
+        <v>2969515090.277773</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0004998546758552382</v>
+        <v>0.001681500000000002</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004007726877549369</v>
+        <v>0.01223907065217272</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09679851078817424</v>
+        <v>0.09950726900401463</v>
       </c>
       <c r="H23" t="n">
-        <v>3.896270281600349</v>
+        <v>3.93297199143526</v>
       </c>
       <c r="I23" t="n">
-        <v>0.006234698565036533</v>
+        <v>1.359592248613004</v>
       </c>
       <c r="J23" t="n">
-        <v>0.007530147149527812</v>
+        <v>0.7921807940346031</v>
       </c>
       <c r="K23" t="n">
-        <v>5.670311609354183e-05</v>
+        <v>0.6275504104372942</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.923920614618434</v>
+        <v>9.618800114306238</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.0001856769937504934</v>
+        <v>0.6754685380793674</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00943694946113135</v>
+        <v>1.257804394230711</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01244722669683989</v>
+        <v>1.865800408812018</v>
       </c>
       <c r="P23" t="n">
-        <v>2.542919423032084</v>
+        <v>3.67903121424879</v>
       </c>
       <c r="Q23" t="n">
+        <v>0.02085103854166638</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.01604584245574937</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.0002574690601147289</v>
+      </c>
+      <c r="T23" t="n">
+        <v>52568203.12499976</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.009910909178929728</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.01521710351713945</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.03169169401142607</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.368482742625352</v>
+      </c>
+      <c r="Y23" t="n">
         <v>21</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.373607219592052</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.7843098290397985</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.615141907928438</v>
-      </c>
-      <c r="U23" t="n">
-        <v>9.325755602462616</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.7219115871469723</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.264857674487584</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.827217818081977</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>3.664455650194633</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2474358234243845</v>
+        <v>0.2559129869364076</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6223345981686891</v>
+        <v>0.6229583927970749</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3873003520777837</v>
+        <v>0.3880771591563147</v>
       </c>
       <c r="D24" t="n">
-        <v>-220.0179821379984</v>
+        <v>3211079110.579298</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0003845463024514839</v>
+        <v>0.003004502811239818</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004036397502228079</v>
+        <v>0.01446841071428528</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07491048211322182</v>
+        <v>0.07340675595237844</v>
       </c>
       <c r="H24" t="n">
-        <v>3.765602196547903</v>
+        <v>3.843887137673903</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00513491467248337</v>
+        <v>1.3059118468498</v>
       </c>
       <c r="J24" t="n">
-        <v>0.004170040609426075</v>
+        <v>0.9014249115461194</v>
       </c>
       <c r="K24" t="n">
-        <v>1.738923868426259e-05</v>
+        <v>0.8125668711559291</v>
       </c>
       <c r="L24" t="n">
-        <v>-5.492277027647637</v>
+        <v>9.719338599039228</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002054359991580208</v>
+        <v>0.5982191316026064</v>
       </c>
       <c r="N24" t="n">
-        <v>0.005895385999508767</v>
+        <v>0.7938405416666652</v>
       </c>
       <c r="O24" t="n">
-        <v>0.008416464676437457</v>
+        <v>2.098710621870389</v>
       </c>
       <c r="P24" t="n">
-        <v>2.486092891835145</v>
+        <v>3.487220841092587</v>
       </c>
       <c r="Q24" t="n">
+        <v>0.0198869323601969</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.01991297210626596</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.0003965264581049262</v>
+      </c>
+      <c r="T24" t="n">
+        <v>61281160.71428557</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.004778931004269182</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.01446841071428528</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.03262478571428534</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.18990191582697</v>
+      </c>
+      <c r="Y24" t="n">
         <v>22</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.295485125038444</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.9016215622719561</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.8129214415537228</v>
-      </c>
-      <c r="U24" t="n">
-        <v>9.722449121140253</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.5716904234806235</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.7858150125427039</v>
-      </c>
-      <c r="X24" t="n">
-        <v>2.032791651785376</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>3.483751056910076</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2306672799188462</v>
+        <v>0.2391344265251824</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5915256893553399</v>
+        <v>0.5923225355919216</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3499026411673101</v>
+        <v>0.3508459861700432</v>
       </c>
       <c r="D25" t="n">
-        <v>-190.1623016868583</v>
+        <v>3004498792.450116</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.000402832861229952</v>
+        <v>0.002906333333333011</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003359377698026913</v>
+        <v>0.01164938816632388</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05069783535090216</v>
+        <v>0.05967553124999725</v>
       </c>
       <c r="H25" t="n">
-        <v>3.74138021078975</v>
+        <v>3.801641269521635</v>
       </c>
       <c r="I25" t="n">
-        <v>0.005376217746727448</v>
+        <v>1.257448822269789</v>
       </c>
       <c r="J25" t="n">
-        <v>0.003789300777616758</v>
+        <v>0.8608637420787304</v>
       </c>
       <c r="K25" t="n">
-        <v>1.435880038324697e-05</v>
+        <v>0.7410863824257949</v>
       </c>
       <c r="L25" t="n">
-        <v>-8.180118520381555</v>
+        <v>9.121939999799949</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001787920306431043</v>
+        <v>0.5665992865173048</v>
       </c>
       <c r="N25" t="n">
-        <v>0.005698474770736542</v>
+        <v>0.7593448950663924</v>
       </c>
       <c r="O25" t="n">
-        <v>0.008928573251915952</v>
+        <v>2.014822668233569</v>
       </c>
       <c r="P25" t="n">
-        <v>2.474059884741234</v>
+        <v>3.464716752282664</v>
       </c>
       <c r="Q25" t="n">
+        <v>0.0201829787709797</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.02069711126624905</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.0004283704147674933</v>
+      </c>
+      <c r="T25" t="n">
+        <v>63374821.42857109</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.00429646987247656</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.01162479389453897</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.02924957142857088</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.166011477914154</v>
+      </c>
+      <c r="Y25" t="n">
         <v>23</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.271221648323043</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.8578484095257578</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.7359038937258723</v>
-      </c>
-      <c r="U25" t="n">
-        <v>8.544741295839344</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.5932091265993473</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.7824282720492373</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.009270274259013</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>3.445193789689868</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2713600689764781</v>
+        <v>0.280021482661689</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7489794562531737</v>
+        <v>0.7497487052360184</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5609702258892998</v>
+        <v>0.5621231210030861</v>
       </c>
       <c r="D26" t="n">
-        <v>-315.4497278049064</v>
+        <v>3819953089.809616</v>
       </c>
       <c r="E26" t="n">
-        <v>4.389384656656667e-05</v>
+        <v>0.003886974468251259</v>
       </c>
       <c r="F26" t="n">
-        <v>0.005319991640049686</v>
+        <v>0.01665503999999629</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07438735897754009</v>
+        <v>0.07224904245237529</v>
       </c>
       <c r="H26" t="n">
-        <v>3.612733277706036</v>
+        <v>3.693060850929808</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00483635662983685</v>
+        <v>2.009509512785721</v>
       </c>
       <c r="J26" t="n">
-        <v>0.003918526800662517</v>
+        <v>1.075869912915874</v>
       </c>
       <c r="K26" t="n">
-        <v>1.535485228751042e-05</v>
+        <v>1.157496069517611</v>
       </c>
       <c r="L26" t="n">
-        <v>-8.120464890377361</v>
+        <v>9.547183539133028</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001893394013796632</v>
+        <v>1.029150627005408</v>
       </c>
       <c r="N26" t="n">
-        <v>0.005304206216224539</v>
+        <v>1.916235968264711</v>
       </c>
       <c r="O26" t="n">
-        <v>0.006927214285714259</v>
+        <v>2.970972192835439</v>
       </c>
       <c r="P26" t="n">
-        <v>2.478351202917464</v>
+        <v>3.178484868680167</v>
       </c>
       <c r="Q26" t="n">
+        <v>0.01942165245889042</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.01880093965014663</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.0003534753317284559</v>
+      </c>
+      <c r="T26" t="n">
+        <v>61073611.11111064</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.005067666666666304</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.01522224772360325</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.02617666666666602</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.222872613545547</v>
+      </c>
+      <c r="Y26" t="n">
         <v>24</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.994172507446199</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.082969122167723</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.172822119568729</v>
-      </c>
-      <c r="U26" t="n">
-        <v>9.319626621655262</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.009301858315851</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.900298499215707</v>
-      </c>
-      <c r="X26" t="n">
-        <v>2.953447107266332</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>3.174043920265285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2173955223517625</v>
+        <v>0.2259786346251337</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6345961271714644</v>
+        <v>0.635964810239141</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4027122446210215</v>
+        <v>0.4044512398625066</v>
       </c>
       <c r="D27" t="n">
-        <v>-259.4733898772348</v>
+        <v>3270120784.722387</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0001873125500154792</v>
+        <v>0.00253737499999962</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003171434438406142</v>
+        <v>0.00929716666666669</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02643750145113112</v>
+        <v>0.04846510576922336</v>
       </c>
       <c r="H27" t="n">
-        <v>3.501557623905131</v>
+        <v>3.595132353849391</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0026746514566514</v>
+        <v>1.811981327368416</v>
       </c>
       <c r="J27" t="n">
-        <v>0.002089724811888589</v>
+        <v>0.9227952882134878</v>
       </c>
       <c r="K27" t="n">
-        <v>4.3669497894228e-06</v>
+        <v>0.851551143949014</v>
       </c>
       <c r="L27" t="n">
-        <v>-33.46240056592036</v>
+        <v>8.781772910280228</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001072926394805336</v>
+        <v>0.9853042584065976</v>
       </c>
       <c r="N27" t="n">
-        <v>0.002713369927064323</v>
+        <v>1.901203119517028</v>
       </c>
       <c r="O27" t="n">
-        <v>0.003810689105648754</v>
+        <v>2.5811242368421</v>
       </c>
       <c r="P27" t="n">
-        <v>2.372450906770156</v>
+        <v>3.077076623549146</v>
       </c>
       <c r="Q27" t="n">
+        <v>0.01717669349123039</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.02014195198478172</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0004056982297572521</v>
+      </c>
+      <c r="T27" t="n">
+        <v>65734166.66666643</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.002169148248323816</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.00929716666666669</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.02231299999999975</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.059206206394376</v>
+      </c>
+      <c r="Y27" t="n">
         <v>25</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.796493663298903</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.9276621187765336</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.8605570066129675</v>
-      </c>
-      <c r="U27" t="n">
-        <v>8.615868130137889</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.9899608062518981</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.845632163422367</v>
-      </c>
-      <c r="X27" t="n">
-        <v>2.581540326650149</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>3.072841916961952</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2336841505995095</v>
+        <v>0.242089785713433</v>
       </c>
       <c r="B28" t="n">
-        <v>0.669966238569538</v>
+        <v>0.6711244827406265</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4488547608230151</v>
+        <v>0.4504080713338736</v>
       </c>
       <c r="D28" t="n">
-        <v>-204.1538431813376</v>
+        <v>3379364302.970369</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.000141595155095453</v>
+        <v>0.002030984799131441</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004055729421786308</v>
+        <v>0.01040480263437266</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02771761901111967</v>
+        <v>0.048083437499993</v>
       </c>
       <c r="H28" t="n">
-        <v>3.537980862404612</v>
+        <v>3.611151030973422</v>
       </c>
       <c r="I28" t="n">
-        <v>0.006714176797792768</v>
+        <v>1.823949563271601</v>
       </c>
       <c r="J28" t="n">
-        <v>0.004797503522886501</v>
+        <v>0.9792487863175525</v>
       </c>
       <c r="K28" t="n">
-        <v>2.301604005210839e-05</v>
+        <v>0.9589281855043997</v>
       </c>
       <c r="L28" t="n">
-        <v>-7.911806613586647</v>
+        <v>9.833609005080744</v>
       </c>
       <c r="M28" t="n">
-        <v>0.003589488307372539</v>
+        <v>0.9375357921101836</v>
       </c>
       <c r="N28" t="n">
-        <v>0.006581324038352177</v>
+        <v>1.822135440676536</v>
       </c>
       <c r="O28" t="n">
-        <v>0.009305213591688739</v>
+        <v>2.713100249999996</v>
       </c>
       <c r="P28" t="n">
-        <v>2.491223390078655</v>
+        <v>3.139099365581587</v>
       </c>
       <c r="Q28" t="n">
+        <v>0.02122841387036161</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.02146355233586267</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0004606840788743159</v>
+      </c>
+      <c r="T28" t="n">
+        <v>68778437.49999979</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.003499750000000079</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.0156590624999996</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.02610372902771291</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.185798287818148</v>
+      </c>
+      <c r="Y28" t="n">
         <v>26</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.808285255739631</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.9853176781847816</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.9708509269434487</v>
-      </c>
-      <c r="U28" t="n">
-        <v>9.593756594173291</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.8996602409865613</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.82159394498956</v>
-      </c>
-      <c r="X28" t="n">
-        <v>2.702619930649496</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>3.134153398901347</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2114260532447522</v>
+        <v>0.2199058323219648</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6353848060850337</v>
+        <v>0.636511598793535</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4037138518037159</v>
+        <v>0.4051470153987021</v>
       </c>
       <c r="D29" t="n">
-        <v>-186.7277188893316</v>
+        <v>3253103047.978248</v>
       </c>
       <c r="E29" t="n">
-        <v>5.518703376807335e-05</v>
+        <v>0.002624875000000082</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003698371431466453</v>
+        <v>0.01025396874999995</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01938788863846158</v>
+        <v>0.03816800393868569</v>
       </c>
       <c r="H29" t="n">
-        <v>3.423448361946649</v>
+        <v>3.518936518675776</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.001693836225436336</v>
+        <v>1.767613459514166</v>
       </c>
       <c r="J29" t="n">
-        <v>0.006689709421816865</v>
+        <v>0.9245838931413781</v>
       </c>
       <c r="K29" t="n">
-        <v>4.475221214834533e-05</v>
+        <v>0.8548553754564673</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2668943929929239</v>
+        <v>9.273510416017219</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.001513205419463798</v>
+        <v>0.9144671540169608</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0008401085599591393</v>
+        <v>1.792757897839057</v>
       </c>
       <c r="O29" t="n">
-        <v>0.002782790812171898</v>
+        <v>2.585075921052627</v>
       </c>
       <c r="P29" t="n">
-        <v>2.174126510300493</v>
+        <v>3.109106648491964</v>
       </c>
       <c r="Q29" t="n">
+        <v>0.01304621389018141</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.01451276224802898</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.0002106202680678152</v>
+      </c>
+      <c r="T29" t="n">
+        <v>45937499.99999974</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0001312500000000827</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.006342374941833651</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.02432499999999971</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.05570704606669</v>
+      </c>
+      <c r="Y29" t="n">
         <v>27</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.809089245860384</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.9041184046080959</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.8174300895510885</v>
-      </c>
-      <c r="U29" t="n">
-        <v>7.458756165639406</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.014077115824555</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.774936725164671</v>
-      </c>
-      <c r="X29" t="n">
-        <v>2.631891226297477</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>3.083358376788369</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1966122652951974</v>
+        <v>0.2052050774545623</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6036848010333623</v>
+        <v>0.6051970840973536</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3644353389986902</v>
+        <v>0.3662635105999393</v>
       </c>
       <c r="D30" t="n">
-        <v>-208.4107662805322</v>
+        <v>3135946680.66202</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.001073856815620581</v>
+        <v>0.001180291666666666</v>
       </c>
       <c r="F30" t="n">
-        <v>0.001639425426637124</v>
+        <v>0.006749548076920797</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01074397262774298</v>
+        <v>0.03279728874832494</v>
       </c>
       <c r="H30" t="n">
-        <v>3.386506474543881</v>
+        <v>3.471336489387083</v>
       </c>
       <c r="I30" t="n">
-        <v>0.002330665727222756</v>
+        <v>1.717663732631575</v>
       </c>
       <c r="J30" t="n">
-        <v>0.003647267923155992</v>
+        <v>0.8805654459963872</v>
       </c>
       <c r="K30" t="n">
-        <v>1.330256330328262e-05</v>
+        <v>0.7753955046828164</v>
       </c>
       <c r="L30" t="n">
-        <v>-3.631134708659086</v>
+        <v>9.284965227719523</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0004384671828874422</v>
+        <v>0.903474206977809</v>
       </c>
       <c r="N30" t="n">
-        <v>0.002065624149659833</v>
+        <v>1.761237484329712</v>
       </c>
       <c r="O30" t="n">
-        <v>0.004235639553913715</v>
+        <v>2.412431263157889</v>
       </c>
       <c r="P30" t="n">
-        <v>2.405731523869259</v>
+        <v>3.074982408887999</v>
       </c>
       <c r="Q30" t="n">
+        <v>0.0171354159736838</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.01766911511462436</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0003121976289338472</v>
+      </c>
+      <c r="T30" t="n">
+        <v>57405160.71428536</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.003249571428571296</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.01353094642857122</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.02112396135337913</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.17781459218973</v>
+      </c>
+      <c r="Y30" t="n">
         <v>28</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.701922815227444</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.8852274449043784</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.7836276292119344</v>
-      </c>
-      <c r="U30" t="n">
-        <v>9.020094105617678</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.9070268988761093</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.761215665174255</v>
-      </c>
-      <c r="X30" t="n">
-        <v>2.46218537537949</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>3.070579215228492</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2038012373840223</v>
+        <v>0.2124895115876901</v>
       </c>
       <c r="B31" t="n">
-        <v>0.620605548492859</v>
+        <v>0.622500237976088</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3851512468201223</v>
+        <v>0.3875065462802862</v>
       </c>
       <c r="D31" t="n">
-        <v>-189.7737344527848</v>
+        <v>3132912835.392857</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0003050501956120809</v>
+        <v>0.002008772776626755</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002752750418360653</v>
+        <v>0.007819961283978605</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01789977164256806</v>
+        <v>0.03975741517859988</v>
       </c>
       <c r="H31" t="n">
-        <v>3.398645931317291</v>
+        <v>3.485239815493978</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001851609066906718</v>
+        <v>1.780382110833329</v>
       </c>
       <c r="J31" t="n">
-        <v>0.002935798437694272</v>
+        <v>0.883031959373388</v>
       </c>
       <c r="K31" t="n">
-        <v>8.618912466768127e-06</v>
+        <v>0.7797454412748046</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.059712271139205</v>
+        <v>9.125083498187664</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0002757742461027865</v>
+        <v>0.9731384791666646</v>
       </c>
       <c r="N31" t="n">
-        <v>0.002088723939653818</v>
+        <v>1.810310910488077</v>
       </c>
       <c r="O31" t="n">
-        <v>0.00381719074275473</v>
+        <v>2.542085020833329</v>
       </c>
       <c r="P31" t="n">
-        <v>2.563162675300985</v>
+        <v>3.08353039273161</v>
       </c>
       <c r="Q31" t="n">
+        <v>0.01669786562914701</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.01833510082481888</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0003361759222562739</v>
+      </c>
+      <c r="T31" t="n">
+        <v>54796874.99999996</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.001967992218603054</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.01192225389069856</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.02373380666395203</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.107260124827964</v>
+      </c>
+      <c r="Y31" t="n">
         <v>29</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.762892625961953</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.8884604078843323</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.7893618963779943</v>
-      </c>
-      <c r="U31" t="n">
-        <v>8.961932719261073</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.9426317926360547</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.814892323816321</v>
-      </c>
-      <c r="X31" t="n">
-        <v>2.576021070254773</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>3.079101166099328</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.03963068556700176</v>
+        <v>0.04817245693775593</v>
       </c>
       <c r="B32" t="n">
-        <v>0.09325749877180381</v>
+        <v>0.09969673449597093</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008696961077172988</v>
+        <v>0.009939438869160119</v>
       </c>
       <c r="D32" t="n">
-        <v>-65.72047583647391</v>
+        <v>556397806.8955393</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001228718552290038</v>
+        <v>0.00370970833333284</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01013675590437284</v>
+        <v>0.01684411635385952</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0265190268983145</v>
+        <v>0.04854690048773713</v>
       </c>
       <c r="H32" t="n">
-        <v>4.171060952090089</v>
+        <v>4.349646611252207</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0100494872671646</v>
+        <v>0.2026215934490503</v>
       </c>
       <c r="J32" t="n">
-        <v>0.01017507155589163</v>
+        <v>0.172457088830528</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0001035320811675148</v>
+        <v>0.02974144748790063</v>
       </c>
       <c r="L32" t="n">
-        <v>253.7811371833237</v>
+        <v>9.929247374919672</v>
       </c>
       <c r="M32" t="n">
-        <v>0.001910784670248367</v>
+        <v>0.07533125620911749</v>
       </c>
       <c r="N32" t="n">
-        <v>0.005692124856733825</v>
+        <v>0.1185980017277612</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01670015714285709</v>
+        <v>0.3179676704738827</v>
       </c>
       <c r="P32" t="n">
-        <v>2.202275828882095</v>
+        <v>3.316650393153475</v>
       </c>
       <c r="Q32" t="n">
+        <v>0.02460342249999979</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.03034803144842556</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.0009210030127946269</v>
+      </c>
+      <c r="T32" t="n">
+        <v>97780749.9999994</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.001476718749999995</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.01036884999999965</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.03832479999999927</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.981558774685514</v>
+      </c>
+      <c r="Y32" t="n">
         <v>30</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.2035583327597578</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.1611865923646084</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.02598111755811445</v>
-      </c>
-      <c r="U32" t="n">
-        <v>9.918357305062129</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.07831769437958255</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0.1244228355293811</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0.3283091926463694</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>3.240072912805911</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.08572394828733593</v>
+        <v>0.09435184768201609</v>
       </c>
       <c r="B33" t="n">
-        <v>0.296519369623472</v>
+        <v>0.3040815000948551</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08792373656190119</v>
+        <v>0.09246555869993735</v>
       </c>
       <c r="D33" t="n">
-        <v>-64.33822037354074</v>
+        <v>1705240239.495934</v>
       </c>
       <c r="E33" t="n">
-        <v>0.000297926354635183</v>
+        <v>0.001413900049201777</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002294238299539279</v>
+        <v>0.005793554637816056</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01296556615089738</v>
+        <v>0.03547548131588946</v>
       </c>
       <c r="H33" t="n">
-        <v>3.275701704924553</v>
+        <v>3.466718411577597</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0007339728299216452</v>
+        <v>1.051821812145208</v>
       </c>
       <c r="J33" t="n">
-        <v>0.001803668131343015</v>
+        <v>0.4957121108107087</v>
       </c>
       <c r="K33" t="n">
-        <v>3.253218728022405e-06</v>
+        <v>0.2457304968044083</v>
       </c>
       <c r="L33" t="n">
-        <v>-2.146063044236968</v>
+        <v>8.533330739590433</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.000247705082379234</v>
+        <v>0.582443659090905</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0005848414922196858</v>
+        <v>1.052974627578715</v>
       </c>
       <c r="O33" t="n">
-        <v>0.001495609096076151</v>
+        <v>1.547955305958605</v>
       </c>
       <c r="P33" t="n">
-        <v>2.3433740306727</v>
+        <v>2.707657595875448</v>
       </c>
       <c r="Q33" t="n">
+        <v>0.01531722854212956</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.02204247118534467</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.0004858705359567499</v>
+      </c>
+      <c r="T33" t="n">
+        <v>79478749.99999937</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.001968750000000075</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.02274999999999916</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.789111563584907</v>
+      </c>
+      <c r="Y33" t="n">
         <v>31</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.025596329482175</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.4706037842990178</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.2214679217965564</v>
-      </c>
-      <c r="U33" t="n">
-        <v>8.095036139739069</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.5843848572427358</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.055962488338323</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.432253088671605</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>2.713867766110923</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.07605970353544429</v>
+        <v>0.0846376696622546</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2664126682086514</v>
+        <v>0.2743037466115316</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07097570978205299</v>
+        <v>0.07524254540512333</v>
       </c>
       <c r="D34" t="n">
-        <v>-42.22047506413391</v>
+        <v>1578102672.159001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0006820284299205959</v>
+        <v>0.003019384345431919</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004354433790199051</v>
+        <v>0.009286218749999964</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01006782621252034</v>
+        <v>0.0251026111739231</v>
       </c>
       <c r="H34" t="n">
-        <v>3.36243879840123</v>
+        <v>3.50759677082169</v>
       </c>
       <c r="I34" t="n">
-        <v>0.00565511710181539</v>
+        <v>0.9768270732599343</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005712441819905902</v>
+        <v>0.4594955225974994</v>
       </c>
       <c r="K34" t="n">
-        <v>3.263199154580985e-05</v>
+        <v>0.2111361352871491</v>
       </c>
       <c r="L34" t="n">
-        <v>-19.86962956474257</v>
+        <v>8.316219085805875</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0005137805382946169</v>
+        <v>0.5593662345171082</v>
       </c>
       <c r="N34" t="n">
-        <v>0.004476532976235298</v>
+        <v>1.032663444034044</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01056285714285687</v>
+        <v>1.402946582670583</v>
       </c>
       <c r="P34" t="n">
-        <v>2.206280431119437</v>
+        <v>2.648078117355214</v>
       </c>
       <c r="Q34" t="n">
+        <v>0.02005938349849735</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.02506750262873825</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.0006283796880417989</v>
+      </c>
+      <c r="T34" t="n">
+        <v>75286041.66666608</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.006452596487599438</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.02949392982093235</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.940127553370767</v>
+      </c>
+      <c r="Y34" t="n">
         <v>32</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.9503357566546845</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.4288882078854112</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.1839450948631597</v>
-      </c>
-      <c r="U34" t="n">
-        <v>7.759175549579922</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.5648782655960697</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.01472281328408</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.346364750779721</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>2.657329570043291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.07369365644987248</v>
+        <v>0.08226049096734986</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2679100929213228</v>
+        <v>0.2759521707840332</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07177581788911185</v>
+        <v>0.07614960056042024</v>
       </c>
       <c r="D35" t="n">
-        <v>-39.9249726449162</v>
+        <v>1579634090.909089</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0001072536759513379</v>
+        <v>0.0004684999999999828</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002038697219294246</v>
+        <v>0.004962612735066596</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01166838212744</v>
+        <v>0.03209793249633081</v>
       </c>
       <c r="H35" t="n">
-        <v>3.178988713960996</v>
+        <v>3.394982896069573</v>
       </c>
       <c r="I35" t="n">
-        <v>0.005019019614673753</v>
+        <v>0.988657839272491</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005394291135798047</v>
+        <v>0.4486270985896282</v>
       </c>
       <c r="K35" t="n">
-        <v>2.909837685774939e-05</v>
+        <v>0.2012662735889479</v>
       </c>
       <c r="L35" t="n">
-        <v>-22.57251819714739</v>
+        <v>7.317359307076986</v>
       </c>
       <c r="M35" t="n">
-        <v>0.000718608847380803</v>
+        <v>0.5800553832755158</v>
       </c>
       <c r="N35" t="n">
-        <v>0.00275599778353636</v>
+        <v>1.044487895998135</v>
       </c>
       <c r="O35" t="n">
-        <v>0.008917047619047757</v>
+        <v>1.405955721096489</v>
       </c>
       <c r="P35" t="n">
-        <v>2.226331737862035</v>
+        <v>2.657299089601366</v>
       </c>
       <c r="Q35" t="n">
+        <v>0.01970191438883411</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.02488834525394678</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0006194297294796553</v>
+      </c>
+      <c r="T35" t="n">
+        <v>75832916.66666624</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.001285156249999975</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.006416083333332878</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.02799999999999947</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.960571659444884</v>
+      </c>
+      <c r="Y35" t="n">
         <v>33</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.9621483387752037</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.4183578453178016</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.1750232867389536</v>
-      </c>
-      <c r="U35" t="n">
-        <v>6.980234547879942</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.5867120635078807</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.02692407704671</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.344916393994658</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>2.665954572311064</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.06679624395522947</v>
+        <v>0.07540104893559671</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2521424320891164</v>
+        <v>0.2601731623960723</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06357580605981465</v>
+        <v>0.06769007443117302</v>
       </c>
       <c r="D36" t="n">
-        <v>-50.70859982342842</v>
+        <v>1513368189.371611</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0002509009446071972</v>
+        <v>0.0006608660714283454</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0008542792863133889</v>
+        <v>0.003723000521698661</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005266341133421487</v>
+        <v>0.02348145056533124</v>
       </c>
       <c r="H36" t="n">
-        <v>3.119335511942923</v>
+        <v>3.325067133096855</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001585721261110376</v>
+        <v>0.9233209076690565</v>
       </c>
       <c r="J36" t="n">
-        <v>0.002503710133932046</v>
+        <v>0.4380409974206593</v>
       </c>
       <c r="K36" t="n">
-        <v>6.268564434754024e-06</v>
+        <v>0.1918799154212861</v>
       </c>
       <c r="L36" t="n">
-        <v>-7.408222157218019</v>
+        <v>8.278049188893283</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0002656378043302964</v>
+        <v>0.5223345094864392</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0005642140146659445</v>
+        <v>0.9623201969585311</v>
       </c>
       <c r="O36" t="n">
-        <v>0.002184309028773647</v>
+        <v>1.339605920488032</v>
       </c>
       <c r="P36" t="n">
-        <v>2.148637336453353</v>
+        <v>2.646407895306792</v>
       </c>
       <c r="Q36" t="n">
+        <v>0.01616103368388381</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.02275509524665198</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.0005177943596842033</v>
+      </c>
+      <c r="T36" t="n">
+        <v>76124749.99999973</v>
+      </c>
+      <c r="U36" t="n">
+        <v>5.468750000003908e-05</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.006778805258260023</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.02239989999999947</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.806780106984992</v>
+      </c>
+      <c r="Y36" t="n">
         <v>34</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.8958891139792455</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.4097622161212836</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.1679050737606256</v>
-      </c>
-      <c r="U36" t="n">
-        <v>7.824524213450473</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.5238444262781536</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0.9415591018704567</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.260516303040691</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>2.654720573350799</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.06174401821580273</v>
+        <v>0.07017411435380053</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2208302886705375</v>
+        <v>0.2283475130305846</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04876601639431294</v>
+        <v>0.05214258670725299</v>
       </c>
       <c r="D37" t="n">
-        <v>-42.0138767169756</v>
+        <v>1263265037.499999</v>
       </c>
       <c r="E37" t="n">
-        <v>6.002642240388005e-05</v>
+        <v>0.0003546899333024545</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001652174725632894</v>
+        <v>0.004882676338459846</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01383063714415339</v>
+        <v>0.03344024046588878</v>
       </c>
       <c r="H37" t="n">
-        <v>3.22192236968914</v>
+        <v>3.487793624582329</v>
       </c>
       <c r="I37" t="n">
-        <v>0.003638466906014801</v>
+        <v>0.8134117004291377</v>
       </c>
       <c r="J37" t="n">
-        <v>0.003765571720548657</v>
+        <v>0.3838232177545935</v>
       </c>
       <c r="K37" t="n">
-        <v>1.417953038259577e-05</v>
+        <v>0.1473202624874901</v>
       </c>
       <c r="L37" t="n">
-        <v>-8.52972391023374</v>
+        <v>9.939073011820266</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0003727475535958612</v>
+        <v>0.5368576745010561</v>
       </c>
       <c r="N37" t="n">
-        <v>0.002150539508013959</v>
+        <v>0.8826504638497854</v>
       </c>
       <c r="O37" t="n">
-        <v>0.007559049725267431</v>
+        <v>1.167893216725316</v>
       </c>
       <c r="P37" t="n">
-        <v>2.222955034305012</v>
+        <v>2.64269014906027</v>
       </c>
       <c r="Q37" t="n">
+        <v>0.01818225848422167</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.02375958862738751</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.0005645180517426819</v>
+      </c>
+      <c r="T37" t="n">
+        <v>79187249.9999997</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.00327853381417742</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.02904989999999952</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.89330438038119</v>
+      </c>
+      <c r="Y37" t="n">
         <v>35</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.788435741496721</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.356622111797636</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.1271793306230056</v>
-      </c>
-      <c r="U37" t="n">
-        <v>9.599656516771789</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.5391419219554886</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.8775457450952922</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.106900806863964</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>2.65218138343294</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.06521918621218771</v>
+        <v>0.07374997530556247</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2472157754476373</v>
+        <v>0.2551017421598293</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06111563963017663</v>
+        <v>0.06507689885298003</v>
       </c>
       <c r="D38" t="n">
-        <v>-40.57450075074429</v>
+        <v>1454848349.999999</v>
       </c>
       <c r="E38" t="n">
-        <v>-9.829633014986336e-05</v>
+        <v>0.0004378704048394466</v>
       </c>
       <c r="F38" t="n">
-        <v>0.001300911174817058</v>
+        <v>0.004166062568184969</v>
       </c>
       <c r="G38" t="n">
-        <v>0.009926050113150517</v>
+        <v>0.0201566874999996</v>
       </c>
       <c r="H38" t="n">
-        <v>3.062881833396003</v>
+        <v>3.310130762871731</v>
       </c>
       <c r="I38" t="n">
-        <v>0.004996495700326854</v>
+        <v>0.9095074527719589</v>
       </c>
       <c r="J38" t="n">
-        <v>0.005814294399639543</v>
+        <v>0.4207523450869104</v>
       </c>
       <c r="K38" t="n">
-        <v>3.380601936567975e-05</v>
+        <v>0.1770325358961345</v>
       </c>
       <c r="L38" t="n">
-        <v>-8.391256237133156</v>
+        <v>8.264657098405074</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0007782096838123023</v>
+        <v>0.5324254722454869</v>
       </c>
       <c r="N38" t="n">
-        <v>0.002457125845679803</v>
+        <v>1.00230308050902</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0104394126984126</v>
+        <v>1.29375043347293</v>
       </c>
       <c r="P38" t="n">
-        <v>2.188821671491949</v>
+        <v>2.651166571875354</v>
       </c>
       <c r="Q38" t="n">
+        <v>0.01969223741332427</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.02603133577448286</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.0006776304422038709</v>
+      </c>
+      <c r="T38" t="n">
+        <v>83926666.66666603</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0007109374999999529</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.00426562499999994</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.03412499999999918</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.890773086908436</v>
+      </c>
+      <c r="Y38" t="n">
         <v>36</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.8834202228763104</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.392036527981465</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.153692639271762</v>
-      </c>
-      <c r="U38" t="n">
-        <v>7.871777120628053</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.5545613493835542</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0.9662539032005333</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1.246163098863565</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>2.660098216952722</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.07153305903097178</v>
+        <v>0.08008504793732972</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2663553750906776</v>
+        <v>0.274079647135458</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07094518583969557</v>
+        <v>0.07511965297389714</v>
       </c>
       <c r="D39" t="n">
-        <v>-42.38826901847573</v>
+        <v>1519687918.752436</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0004408939355329796</v>
+        <v>0.001221416825011867</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002381877816924746</v>
+        <v>0.004789791666666654</v>
       </c>
       <c r="G39" t="n">
-        <v>0.008616970011163674</v>
+        <v>0.01973346689489952</v>
       </c>
       <c r="H39" t="n">
-        <v>3.08984907387969</v>
+        <v>3.324999273675927</v>
       </c>
       <c r="I39" t="n">
-        <v>0.007419953615086644</v>
+        <v>0.9881577970053579</v>
       </c>
       <c r="J39" t="n">
-        <v>0.006263673762025129</v>
+        <v>0.4293860914271336</v>
       </c>
       <c r="K39" t="n">
-        <v>3.923360899708203e-05</v>
+        <v>0.1843724155110708</v>
       </c>
       <c r="L39" t="n">
-        <v>-45.71951499378034</v>
+        <v>6.564088137238643</v>
       </c>
       <c r="M39" t="n">
-        <v>0.001780266682621897</v>
+        <v>0.5956548147235473</v>
       </c>
       <c r="N39" t="n">
-        <v>0.006041824243781852</v>
+        <v>1.064225090058035</v>
       </c>
       <c r="O39" t="n">
-        <v>0.01240470760321752</v>
+        <v>1.393273258234976</v>
       </c>
       <c r="P39" t="n">
-        <v>2.330716775143037</v>
+        <v>2.666447667813816</v>
       </c>
       <c r="Q39" t="n">
+        <v>0.02196707833790037</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.02536862336806581</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.0006435670515907747</v>
+      </c>
+      <c r="T39" t="n">
+        <v>78384999.9999997</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.001859708650018055</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.01101000000000019</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.03237499999999949</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.052315691765069</v>
+      </c>
+      <c r="Y39" t="n">
         <v>37</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.961709649527716</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.4018446367457759</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.1614791120813446</v>
-      </c>
-      <c r="U39" t="n">
-        <v>6.339814523023597</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0.6037060344271333</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.0285331611249</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1.319802840375247</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>2.674098942531668</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.03266699338289691</v>
+        <v>0.0412011577465093</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0981354790050948</v>
+        <v>0.1058754658942553</v>
       </c>
       <c r="C40" t="n">
-        <v>0.009630572239559401</v>
+        <v>0.01120961427832562</v>
       </c>
       <c r="D40" t="n">
-        <v>-42.14376696248078</v>
+        <v>589843671.2395626</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0008887705657975437</v>
+        <v>0.000583458616092547</v>
       </c>
       <c r="F40" t="n">
-        <v>0.005430082823299245</v>
+        <v>0.008186882115116867</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0158583619685178</v>
+        <v>0.03296913935354906</v>
       </c>
       <c r="H40" t="n">
-        <v>3.788382295766556</v>
+        <v>3.994358404457334</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01100494228349626</v>
+        <v>0.2231366535180437</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01205258630345872</v>
+        <v>0.2009097124263469</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0001452648366023207</v>
+        <v>0.04036471254723739</v>
       </c>
       <c r="L40" t="n">
-        <v>-32.47572667450196</v>
+        <v>9.912922017163014</v>
       </c>
       <c r="M40" t="n">
-        <v>0.00170328446323139</v>
+        <v>0.06535961750248867</v>
       </c>
       <c r="N40" t="n">
-        <v>0.005483432871997134</v>
+        <v>0.07702119097222093</v>
       </c>
       <c r="O40" t="n">
-        <v>0.01520867857142835</v>
+        <v>0.404497309155418</v>
       </c>
       <c r="P40" t="n">
-        <v>2.171158276300392</v>
+        <v>3.084020768748636</v>
       </c>
       <c r="Q40" t="n">
+        <v>0.02534582564787492</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.03321749291089877</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.00110340183528561</v>
+      </c>
+      <c r="T40" t="n">
+        <v>110978645.8333328</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.007729395833333319</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.03674974999999914</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.894760170937468</v>
+      </c>
+      <c r="Y40" t="n">
         <v>38</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.3681578302440544</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.1566926549735012</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0.0245525881226447</v>
-      </c>
-      <c r="U40" t="n">
-        <v>7.294851086683122</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0.2500202562227414</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0.3909080574932594</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0.5104818914139529</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>2.603689005367099</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.05550466992111959</v>
+        <v>0.0641608502657291</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2219195574713074</v>
+        <v>0.2298715193421804</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0492482899882609</v>
+        <v>0.05284091540468244</v>
       </c>
       <c r="D41" t="n">
-        <v>-72.21940304657475</v>
+        <v>1370117917.245981</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.001550192031570225</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.0001194489325045744</v>
+        <v>0.001996093749999928</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0009378571665545433</v>
+        <v>0.01688953103510615</v>
       </c>
       <c r="H41" t="n">
-        <v>2.96823521773669</v>
+        <v>3.193458957832149</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.001403690472340024</v>
+        <v>0.8148509739945384</v>
       </c>
       <c r="J41" t="n">
-        <v>0.00365346803086645</v>
+        <v>0.3849251328694655</v>
       </c>
       <c r="K41" t="n">
-        <v>1.334782865256318e-05</v>
+        <v>0.1481673579145757</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.3123371194488048</v>
+        <v>7.580616379510158</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.001468056971909605</v>
+        <v>0.4597747060049049</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.0005005086944933358</v>
+        <v>0.8166044245320802</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0008944850254406344</v>
+        <v>1.173465549097593</v>
       </c>
       <c r="P41" t="n">
-        <v>2.169582289621216</v>
+        <v>2.64929849192715</v>
       </c>
       <c r="Q41" t="n">
+        <v>0.01331892569291484</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.01645312430242074</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.0002707052993109079</v>
+      </c>
+      <c r="T41" t="n">
+        <v>51843499.99999981</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.0001637426968615352</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.004768900000000187</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.01942539999999976</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.964471271956746</v>
+      </c>
+      <c r="Y41" t="n">
         <v>39</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.7858346051659304</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.3606429489020611</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.1300633365927746</v>
-      </c>
-      <c r="U41" t="n">
-        <v>7.060110286010394</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0.4578246793230035</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0.7958456567633202</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.084877320388442</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>2.655648869061718</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.07567185064560673</v>
+        <v>0.08425834502369282</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2782797734330842</v>
+        <v>0.2862825514090757</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07743963230196869</v>
+        <v>0.08195769924129009</v>
       </c>
       <c r="D42" t="n">
-        <v>-43.53167775894354</v>
+        <v>1603937297.352302</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001009234989797173</v>
+        <v>0.002094615221549745</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003967955235116076</v>
+        <v>0.007441522620340035</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01096156123135357</v>
+        <v>0.02225432101595248</v>
       </c>
       <c r="H42" t="n">
-        <v>3.125741665582903</v>
+        <v>3.366978061311462</v>
       </c>
       <c r="I42" t="n">
-        <v>0.003998759063008198</v>
+        <v>1.030109747751182</v>
       </c>
       <c r="J42" t="n">
-        <v>0.003561359559559769</v>
+        <v>0.4546715296638212</v>
       </c>
       <c r="K42" t="n">
-        <v>1.268328191246775e-05</v>
+        <v>0.2067261998868391</v>
       </c>
       <c r="L42" t="n">
-        <v>-8.560762821947362</v>
+        <v>6.690938279274203</v>
       </c>
       <c r="M42" t="n">
-        <v>0.001836938269457953</v>
+        <v>0.6164022391069809</v>
       </c>
       <c r="N42" t="n">
-        <v>0.003068020339093138</v>
+        <v>1.078633466857967</v>
       </c>
       <c r="O42" t="n">
-        <v>0.005267436542709697</v>
+        <v>1.461170690335177</v>
       </c>
       <c r="P42" t="n">
-        <v>2.408145756791505</v>
+        <v>2.663765612408265</v>
       </c>
       <c r="Q42" t="n">
+        <v>0.01866133842757729</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.02277333740876295</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.0005186248967333619</v>
+      </c>
+      <c r="T42" t="n">
+        <v>66754791.66666598</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.00023576823845739</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.008567291666666588</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.02756249999999916</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.986399340144692</v>
+      </c>
+      <c r="Y42" t="n">
         <v>40</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.003339174541301</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.4253256446215324</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.180901903972722</v>
-      </c>
-      <c r="U42" t="n">
-        <v>6.431875214894744</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0.6228494117673373</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.060473701964538</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.379976778229941</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>2.671680985620525</v>
       </c>
     </row>
   </sheetData>
